--- a/TradeSimulation/MasterConfigData/AssetInfo.xlsx
+++ b/TradeSimulation/MasterConfigData/AssetInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\MasterConfigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8AF96B-F8ED-4C80-9D21-8EF842A1A462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE0C27-C2A0-4F31-9211-4A25666B1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetInfo" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>TSF-A</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>KKP-ACT-EQ-A</t>
+  </si>
+  <si>
+    <t>BMSCG.BK</t>
+  </si>
+  <si>
+    <t>BMSCITH.BK</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>ACWI</t>
+  </si>
+  <si>
+    <t>AAXJ</t>
+  </si>
+  <si>
+    <t>TDEX.BK</t>
   </si>
 </sst>
 </file>
@@ -385,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E8B6F6-3286-4E2D-9ADA-E3407FACEBE6}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -494,6 +512,72 @@
         <v>0.5</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>

--- a/TradeSimulation/MasterConfigData/AssetInfo.xlsx
+++ b/TradeSimulation/MasterConfigData/AssetInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\MasterConfigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE0C27-C2A0-4F31-9211-4A25666B1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B1F218-AD00-4C1B-B152-B7C5ECE993CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetInfo" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>TSF-A</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>TDEX.BK</t>
+  </si>
+  <si>
+    <t>ASP-T12</t>
+  </si>
+  <si>
+    <t>KKP-TQG</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E8B6F6-3286-4E2D-9ADA-E3407FACEBE6}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -451,10 +457,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -462,7 +468,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -473,10 +479,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -484,10 +490,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -495,21 +501,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -517,10 +523,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -528,18 +534,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -550,7 +556,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -561,7 +567,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -572,12 +578,34 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
